--- a/output/carin-rtpbc-MedicationRequest.xlsx
+++ b/output/carin-rtpbc-MedicationRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="595">
   <si>
     <t>Path</t>
   </si>
@@ -1586,6 +1586,9 @@
   </si>
   <si>
     <t>Billing quantity unity of measure</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin/ValueSet/rtpbc-billing-units</t>
   </si>
   <si>
     <t>Quantity.unit</t>
@@ -11477,7 +11480,7 @@
         <v>503</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>44</v>
+        <v>504</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>44</v>
@@ -11495,7 +11498,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11516,18 +11519,18 @@
         <v>44</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11553,14 +11556,14 @@
         <v>66</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>44</v>
@@ -11609,7 +11612,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11618,7 +11621,7 @@
         <v>52</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>64</v>
@@ -11630,18 +11633,18 @@
         <v>44</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11667,16 +11670,16 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
@@ -11725,7 +11728,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11746,25 +11749,25 @@
         <v>44</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E86" t="s" s="2">
         <v>52</v>
@@ -11785,13 +11788,13 @@
         <v>449</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11841,7 +11844,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11859,10 +11862,10 @@
         <v>44</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>44</v>
@@ -11873,7 +11876,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11985,7 +11988,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12099,14 +12102,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E89" t="s" s="2">
         <v>42</v>
@@ -12127,10 +12130,10 @@
         <v>482</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>484</v>
@@ -12217,7 +12220,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12246,7 +12249,7 @@
         <v>490</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
@@ -12333,7 +12336,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12359,10 +12362,10 @@
         <v>54</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -12415,7 +12418,7 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12436,18 +12439,18 @@
         <v>44</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12473,14 +12476,14 @@
         <v>66</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12529,7 +12532,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12538,7 +12541,7 @@
         <v>52</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>64</v>
@@ -12550,18 +12553,18 @@
         <v>44</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12587,16 +12590,16 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -12645,7 +12648,7 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12666,25 +12669,25 @@
         <v>44</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E94" t="s" s="2">
         <v>52</v>
@@ -12702,13 +12705,13 @@
         <v>44</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="K94" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="L94" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12759,7 +12762,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12780,7 +12783,7 @@
         <v>44</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>351</v>
@@ -12791,7 +12794,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12903,7 +12906,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13017,14 +13020,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E97" t="s" s="2">
         <v>52</v>
@@ -13045,10 +13048,10 @@
         <v>54</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>272</v>
@@ -13133,7 +13136,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13247,7 +13250,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13361,7 +13364,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13475,14 +13478,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D101" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E101" t="s" s="2">
         <v>52</v>
@@ -13503,10 +13506,10 @@
         <v>424</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13557,7 +13560,7 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13575,10 +13578,10 @@
         <v>44</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>44</v>
@@ -13589,7 +13592,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13701,7 +13704,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13815,7 +13818,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13931,14 +13934,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E105" t="s" s="2">
         <v>52</v>
@@ -13959,13 +13962,13 @@
         <v>168</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14015,7 +14018,7 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>52</v>
@@ -14033,21 +14036,21 @@
         <v>44</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14073,10 +14076,10 @@
         <v>132</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14106,10 +14109,10 @@
         <v>136</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>44</v>
@@ -14127,7 +14130,7 @@
         <v>44</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -14145,21 +14148,21 @@
         <v>44</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14182,13 +14185,13 @@
         <v>44</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14239,7 +14242,7 @@
         <v>44</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -14254,13 +14257,13 @@
         <v>64</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>44</v>
@@ -14271,11 +14274,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14294,16 +14297,16 @@
         <v>44</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14353,7 +14356,7 @@
         <v>44</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14374,7 +14377,7 @@
         <v>44</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>44</v>
@@ -14385,7 +14388,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14408,16 +14411,16 @@
         <v>44</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -14467,7 +14470,7 @@
         <v>44</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14482,13 +14485,13 @@
         <v>64</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>44</v>

--- a/output/carin-rtpbc-MedicationRequest.xlsx
+++ b/output/carin-rtpbc-MedicationRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="595">
   <si>
     <t>Path</t>
   </si>
@@ -561,14 +561,13 @@
     <t>MedicationRequest.reported[x]</t>
   </si>
   <si>
-    <t>boolean
-Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)</t>
-  </si>
-  <si>
-    <t>Reported rather than primary record</t>
-  </si>
-  <si>
-    <t>Indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record.  It may also indicate the source of the report.</t>
+    <t>Reported by patient or other</t>
+  </si>
+  <si>
+    <t>Reported</t>
+  </si>
+  <si>
+    <t>Indicates whether the prescription information has been reported by the patient or other party (.reported = true) or is the original prescription record (.reported = false).</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role</t>
@@ -2025,7 +2024,7 @@
     <col min="1" max="1" width="67.97265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="26.73828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="26.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -4010,7 +4009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>173</v>
       </c>
@@ -4018,15 +4017,17 @@
       <c r="C18" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -4035,7 +4036,7 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>175</v>

--- a/output/carin-rtpbc-MedicationRequest.xlsx
+++ b/output/carin-rtpbc-MedicationRequest.xlsx
@@ -1587,7 +1587,7 @@
     <t>Billing quantity unity of measure</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin/ValueSet/rtpbc-billing-units</t>
+    <t>http://hl7.org/fhir/us/carin/ValueSet/rtpbc-billing-unit</t>
   </si>
   <si>
     <t>Quantity.unit</t>

--- a/output/carin-rtpbc-MedicationRequest.xlsx
+++ b/output/carin-rtpbc-MedicationRequest.xlsx
@@ -824,7 +824,7 @@
     <t>Patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/rtpbc-request-patient-info)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/rtpbc-patient)
 </t>
   </si>
   <si>
@@ -1015,7 +1015,7 @@
     <t>Prescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/rtpbc-request-prescriber-info)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/rtpbc-practitioner)
 </t>
   </si>
   <si>

--- a/output/carin-rtpbc-MedicationRequest.xlsx
+++ b/output/carin-rtpbc-MedicationRequest.xlsx
@@ -11475,7 +11475,7 @@
         <v>44</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="X83" t="s" s="2">
         <v>503</v>
@@ -11771,7 +11771,7 @@
         <v>523</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>52</v>
